--- a/ExcelData/TC_ClassRegistration.xlsx
+++ b/ExcelData/TC_ClassRegistration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23505" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22065" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>2:00 AM</t>
   </si>
   <si>
-    <t>SEP 08 FRI</t>
+    <t>SEP 16 SAT</t>
   </si>
 </sst>
 </file>
